--- a/webroot/エクセル原本/参考・過去フォーマット/請求書 - コピー.xlsx
+++ b/webroot/エクセル原本/参考・過去フォーマット/請求書 - コピー.xlsx
@@ -1,27 +1,6 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20379"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CakePHPapp\webroot\エクセル原本\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473A2E13-8E1A-4C71-8A39-7FB191ED8A0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="合計表" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-</workbook>
-</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
   <si>
     <t>　　</t>
   </si>
@@ -187,6 +166,13 @@
   </si>
   <si>
     <t>TEL(073)472-7500  FAX(073)472-7600</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>請求明細書（控）</t>
+    <rPh sb="6" eb="7">
+      <t>ヒカエ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -202,7 +188,7 @@
     <numFmt numFmtId="180" formatCode="#,##0_ "/>
     <numFmt numFmtId="181" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -322,6 +308,13 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1038,10 +1031,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1276,6 +1270,69 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1300,15 +1357,6 @@
     <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1318,47 +1366,8 @@
     <xf numFmtId="177" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1366,16 +1375,148 @@
     <xf numFmtId="177" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1406,146 +1547,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{25E0CAA4-E1BE-4C2C-84C0-4B29A553AB13}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -1843,1271 +1853,4 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L42"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="4.5" style="22" customWidth="1"/>
-    <col min="2" max="2" width="6" style="22" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="22" customWidth="1"/>
-    <col min="4" max="5" width="8.75" style="22" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="2.75" style="22" customWidth="1"/>
-    <col min="8" max="8" width="11" style="22" customWidth="1"/>
-    <col min="9" max="9" width="9.58203125" style="22" customWidth="1"/>
-    <col min="10" max="10" width="3.08203125" style="22" customWidth="1"/>
-    <col min="11" max="11" width="10.08203125" style="22" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="22"/>
-    <col min="13" max="16384" width="5.25" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="19" customFormat="1" ht="19.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H1" s="80" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-    </row>
-    <row r="2" spans="1:11" s="20" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-    </row>
-    <row r="3" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="24"/>
-    </row>
-    <row r="5" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="24"/>
-    </row>
-    <row r="6" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H6" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="24"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="85" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="24"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="44"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="24"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="24"/>
-    </row>
-    <row r="10" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="24"/>
-    </row>
-    <row r="11" spans="1:11" ht="12.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="24"/>
-    </row>
-    <row r="12" spans="1:11" ht="8.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C12" s="19"/>
-      <c r="I12" s="26"/>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-    </row>
-    <row r="14" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="94" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="90"/>
-      <c r="H14" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="K14" s="90"/>
-    </row>
-    <row r="15" spans="1:11" ht="26.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="91"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="92"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="102"/>
-    </row>
-    <row r="16" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="17" spans="1:11" ht="12.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-    </row>
-    <row r="18" spans="1:11" ht="12.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-    </row>
-    <row r="19" spans="1:11" s="37" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-    </row>
-    <row r="20" spans="1:11" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-    </row>
-    <row r="21" spans="1:11" ht="5.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-    </row>
-    <row r="23" spans="1:11" ht="32.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="84" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-    </row>
-    <row r="24" spans="1:11" s="20" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="82">
-        <f>A2</f>
-        <v>0</v>
-      </c>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="H24" s="96">
-        <f>H2</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="96"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="96"/>
-    </row>
-    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="81">
-        <f>A3</f>
-        <v>0</v>
-      </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="21"/>
-    </row>
-    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="103">
-        <f>A4</f>
-        <v>0</v>
-      </c>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="24"/>
-    </row>
-    <row r="27" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="24"/>
-    </row>
-    <row r="28" spans="1:11" ht="12.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="H28" s="76" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="24"/>
-    </row>
-    <row r="29" spans="1:11" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="44"/>
-      <c r="B29" s="106">
-        <f>B7</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="I29" s="76"/>
-      <c r="J29" s="76"/>
-      <c r="K29" s="24"/>
-    </row>
-    <row r="30" spans="1:11" ht="16.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="44"/>
-      <c r="B30" s="107">
-        <f>B8</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="76" t="s">
-        <v>37</v>
-      </c>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="24"/>
-    </row>
-    <row r="31" spans="1:11" ht="12.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="24"/>
-    </row>
-    <row r="32" spans="1:11" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="24"/>
-    </row>
-    <row r="33" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C33" s="19"/>
-      <c r="I33" s="26"/>
-    </row>
-    <row r="34" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-    </row>
-    <row r="35" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="94" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35" s="95"/>
-      <c r="C35" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="F35" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="90"/>
-      <c r="H35" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="J35" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="K35" s="90"/>
-    </row>
-    <row r="36" spans="1:11" ht="26.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="97">
-        <f t="shared" ref="A36:J36" si="0">A15</f>
-        <v>0</v>
-      </c>
-      <c r="B36" s="98"/>
-      <c r="C36" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D36" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="97">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="98"/>
-      <c r="H36" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="99">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="100"/>
-    </row>
-    <row r="37" spans="1:11" ht="12.65" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="38" spans="1:11" ht="12.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="37"/>
-    </row>
-    <row r="39" spans="1:11" s="37" customFormat="1" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="43"/>
-    </row>
-    <row r="40" spans="1:11" s="37" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C40" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-    </row>
-    <row r="41" spans="1:11" ht="11.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="37"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-    </row>
-  </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="29">
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="H24:K24"/>
-    <mergeCell ref="B7:E8"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.70866141732282995" right="0.70866141732282995" top="0.35433070866142002" bottom="0.74803149606299002" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K40"/>
-  <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4140625" defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="9.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.08203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.4140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D1" s="144" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
-    </row>
-    <row r="2" spans="1:11" ht="7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="145"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="H4" s="146" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
-    </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="H5" s="146" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="146"/>
-    </row>
-    <row r="6" spans="1:11" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="122"/>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="146" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-    </row>
-    <row r="7" spans="1:11" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="123"/>
-      <c r="B7" s="123"/>
-      <c r="C7" s="123"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="118"/>
-      <c r="H7" s="146" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-    </row>
-    <row r="8" spans="1:11" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="148" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="148"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="147" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="147"/>
-    </row>
-    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="8"/>
-      <c r="H9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-    </row>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="18"/>
-      <c r="H10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="119" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="1:11" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="18"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="49"/>
-    </row>
-    <row r="16" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="138" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="139"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="139"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="168" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="149" t="s">
-        <v>42</v>
-      </c>
-      <c r="J16" s="140"/>
-      <c r="K16" s="54" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="141"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="165"/>
-      <c r="J17" s="166"/>
-      <c r="K17" s="56"/>
-    </row>
-    <row r="18" spans="1:11" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="110"/>
-      <c r="B18" s="111"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="59"/>
-    </row>
-    <row r="19" spans="1:11" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="110"/>
-      <c r="B19" s="111"/>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="59"/>
-    </row>
-    <row r="20" spans="1:11" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="110"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="159"/>
-      <c r="K20" s="59"/>
-    </row>
-    <row r="21" spans="1:11" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="110"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="159"/>
-      <c r="K21" s="59"/>
-    </row>
-    <row r="22" spans="1:11" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="110"/>
-      <c r="B22" s="111"/>
-      <c r="C22" s="111"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="159"/>
-      <c r="K22" s="59"/>
-    </row>
-    <row r="23" spans="1:11" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="110"/>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="158"/>
-      <c r="J23" s="159"/>
-      <c r="K23" s="59"/>
-    </row>
-    <row r="24" spans="1:11" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="110"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="158"/>
-      <c r="J24" s="159"/>
-      <c r="K24" s="59"/>
-    </row>
-    <row r="25" spans="1:11" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="110"/>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="159"/>
-      <c r="K25" s="59"/>
-    </row>
-    <row r="26" spans="1:11" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="110"/>
-      <c r="B26" s="111"/>
-      <c r="C26" s="111"/>
-      <c r="D26" s="111"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="159"/>
-      <c r="K26" s="59"/>
-    </row>
-    <row r="27" spans="1:11" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="110"/>
-      <c r="B27" s="111"/>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="159"/>
-      <c r="K27" s="59"/>
-    </row>
-    <row r="28" spans="1:11" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="110"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="158"/>
-      <c r="J28" s="159"/>
-      <c r="K28" s="62"/>
-    </row>
-    <row r="29" spans="1:11" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="110"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="161"/>
-      <c r="K29" s="63"/>
-    </row>
-    <row r="30" spans="1:11" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="110"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="162"/>
-      <c r="J30" s="163"/>
-      <c r="K30" s="66"/>
-    </row>
-    <row r="31" spans="1:11" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="110"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="158"/>
-      <c r="J31" s="159"/>
-      <c r="K31" s="59"/>
-    </row>
-    <row r="32" spans="1:11" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="110"/>
-      <c r="B32" s="111"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="61"/>
-      <c r="I32" s="158"/>
-      <c r="J32" s="159"/>
-      <c r="K32" s="59"/>
-    </row>
-    <row r="33" spans="1:11" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="110"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="159"/>
-      <c r="K33" s="59"/>
-    </row>
-    <row r="34" spans="1:11" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="134"/>
-      <c r="B34" s="135"/>
-      <c r="C34" s="135"/>
-      <c r="D34" s="135"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="161"/>
-      <c r="K34" s="69"/>
-    </row>
-    <row r="35" spans="1:11" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="110"/>
-      <c r="B35" s="111"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="158"/>
-      <c r="J35" s="159"/>
-      <c r="K35" s="62"/>
-    </row>
-    <row r="36" spans="1:11" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="114"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="78"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="157"/>
-      <c r="K36" s="79"/>
-    </row>
-    <row r="37" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="124" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" s="125"/>
-      <c r="H37" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" s="154">
-        <f>SUM(I17:I36)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="155"/>
-      <c r="K37" s="73"/>
-    </row>
-    <row r="38" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="126"/>
-      <c r="B38" s="127"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="132"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="I38" s="152">
-        <f>I37*0.1</f>
-        <v>0</v>
-      </c>
-      <c r="J38" s="153"/>
-      <c r="K38" s="74"/>
-    </row>
-    <row r="39" spans="1:11" ht="21.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="129"/>
-      <c r="B39" s="130"/>
-      <c r="C39" s="130"/>
-      <c r="D39" s="130"/>
-      <c r="E39" s="131"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="131"/>
-      <c r="H39" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="I39" s="150">
-        <f>I37*1.1</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="151"/>
-      <c r="K39" s="75"/>
-    </row>
-    <row r="40" spans="1:11" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-  </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="63">
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A38:E39"/>
-    <mergeCell ref="F38:G39"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>